--- a/รายการจัดส่งข้าวขวัญ-2021-12-07.xlsx
+++ b/รายการจัดส่งข้าวขวัญ-2021-12-07.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>เลขที่</t>
   </si>
@@ -32,6 +32,204 @@
   </si>
   <si>
     <t>จำนวน(กล่อง)</t>
+  </si>
+  <si>
+    <t>2021120702550483</t>
+  </si>
+  <si>
+    <t>2021-12-07T21:56:42.210+07:00</t>
+  </si>
+  <si>
+    <t> น.ส. ปิ่นแข ทับเอี่ยม</t>
+  </si>
+  <si>
+    <t>0816960772</t>
+  </si>
+  <si>
+    <t>Mod_PK</t>
+  </si>
+  <si>
+    <t>7 ซอยประชาอุทิศ 33 แยก 23 ประชาอุทิศ บางมด ทุ่งครุ กทม. 10140</t>
+  </si>
+  <si>
+    <t>2021120701375936</t>
+  </si>
+  <si>
+    <t>2021-12-07T20:41:43.148+07:00</t>
+  </si>
+  <si>
+    <t> นางสาว เกษรา คนเที่ยง</t>
+  </si>
+  <si>
+    <t>0642831978</t>
+  </si>
+  <si>
+    <t>Ketsara🐝...</t>
+  </si>
+  <si>
+    <t>154/1 ม. 1 (โรงเรียนบ้านลิพอน)  ศรีสุนทร อำเภอถลาง ภูเก็ต 83110</t>
+  </si>
+  <si>
+    <t>2021120711521089</t>
+  </si>
+  <si>
+    <t>2021-12-07T18:53:47.820+07:00</t>
+  </si>
+  <si>
+    <t> นางสาว ธ​ไ​ณ​ม์​ศ​วรร​ค์​ พรหม​เป็นสุข​</t>
+  </si>
+  <si>
+    <t>0993356842</t>
+  </si>
+  <si>
+    <t>Tanai</t>
+  </si>
+  <si>
+    <t>76/1​ ม.11​ ซ.อ่อนนุช72 อ่อนนุช ประเวศ เขตประเวศ กรุงเทพมหานคร 10250</t>
+  </si>
+  <si>
+    <t>2021120711332278</t>
+  </si>
+  <si>
+    <t>2021-12-07T18:34:22.208+07:00</t>
+  </si>
+  <si>
+    <t> นางสาว นิภา สุขพิทักษ์</t>
+  </si>
+  <si>
+    <t>0899132640</t>
+  </si>
+  <si>
+    <t>nipa sukpitak</t>
+  </si>
+  <si>
+    <t>370 หมู่ 8  พนมทวน อำเภอพนมทวน กาญจนบุรี 71140</t>
+  </si>
+  <si>
+    <t>2021120710595059</t>
+  </si>
+  <si>
+    <t>2021-12-07T18:00:21.149+07:00</t>
+  </si>
+  <si>
+    <t> Miss Jinny Wu</t>
+  </si>
+  <si>
+    <t>0969568994</t>
+  </si>
+  <si>
+    <t>Jinny Wu</t>
+  </si>
+  <si>
+    <t>68 สามชัย หาดใหญ่ หาดใหญ่ สงขลา 90110</t>
+  </si>
+  <si>
+    <t>2021120703451533</t>
+  </si>
+  <si>
+    <t>2021-12-07T10:49:13.013+07:00</t>
+  </si>
+  <si>
+    <t> นางสาว พรทวี พึ่งรัศมี</t>
+  </si>
+  <si>
+    <t>0816828308</t>
+  </si>
+  <si>
+    <t>พรทวี</t>
+  </si>
+  <si>
+    <t>เลขที่ 508/30 ซอยต้นโพธิ์ ถนนเจริญกรุง บางคอแหลม บางคอแหลม กรุงเทพมหานคร 10120</t>
+  </si>
+  <si>
+    <t>2021120702522804</t>
+  </si>
+  <si>
+    <t>2021-12-07T09:53:16.042+07:00</t>
+  </si>
+  <si>
+    <t> นาย เฉลิมเกียรติ ตาตะมิ</t>
+  </si>
+  <si>
+    <t>0899652552</t>
+  </si>
+  <si>
+    <t>totatami</t>
+  </si>
+  <si>
+    <t>988/47 ศุภาลัยเบลล่าบ้านเลื่อม  บ้านเลื่อม เมือง อุดรธานี 41000</t>
+  </si>
+  <si>
+    <t>2021120702445723</t>
+  </si>
+  <si>
+    <t>2021-12-07T09:47:03.064+07:00</t>
+  </si>
+  <si>
+    <t> นางสาว นิธิชญา​ มหัจฉริยวงศ์</t>
+  </si>
+  <si>
+    <t>0991495995</t>
+  </si>
+  <si>
+    <t>นิธิชญา🏠จิตกตัญญู️</t>
+  </si>
+  <si>
+    <t>555/59​ หมู่บ้าน​ All​ Suite​ (แยก​ 5) สายไหม สายไหม เขตสายไหม กรุงเทพมหานคร 10220</t>
+  </si>
+  <si>
+    <t>2021120701245761</t>
+  </si>
+  <si>
+    <t>2021-12-07T08:25:58.443+07:00</t>
+  </si>
+  <si>
+    <t> นาย ดนุ สายสุทธิชัย</t>
+  </si>
+  <si>
+    <t>0814236598</t>
+  </si>
+  <si>
+    <t>👀 Danu 👂👃👅🚶💛</t>
+  </si>
+  <si>
+    <t>4/57 ซ.ม.ชัยพฤกษ์ มาเจริญ หนองแขม เขตหนองแขม กรุงเทพมหานคร 10160</t>
+  </si>
+  <si>
+    <t>2021120611132272</t>
+  </si>
+  <si>
+    <t>2021-12-07T17:19:22.986+07:00</t>
+  </si>
+  <si>
+    <t> นาง อำไพ สุขแก้ว</t>
+  </si>
+  <si>
+    <t>0818966707</t>
+  </si>
+  <si>
+    <t>อำไพ สุขแก้ว</t>
+  </si>
+  <si>
+    <t>สำนักงานอุตสาหกรรมจังหวัดสงขลา กาญจนวนิช เขารูปช้าง อำเภอเมืองสงขลา สงขลา 90000</t>
+  </si>
+  <si>
+    <t>2021120612165805</t>
+  </si>
+  <si>
+    <t>2021-12-07T10:17:18.639+07:00</t>
+  </si>
+  <si>
+    <t> คุณ สำราญ ภูฆ</t>
+  </si>
+  <si>
+    <t>0898511819</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>รพ . จุฬารัตน์ 3 อินเตอร์  เลขที่ 88/8 หมู่ 10 เทพารักษ์ กม 14.5 บางปลา อำเภอบางพลี สมุทรปราการ 10540</t>
   </si>
 </sst>
 </file>
@@ -71,7 +269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -100,6 +298,259 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
